--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
   <si>
     <t>Vecka:</t>
   </si>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t>6.3 Menybakgrund</t>
-  </si>
-  <si>
-    <t>50% Färdigt</t>
   </si>
   <si>
     <t>73% Färdigt</t>
@@ -285,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,13 +307,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,11 +355,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -419,37 +404,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
-    <cellStyle name="Accent2" xfId="7" builtinId="33"/>
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+  <cellStyles count="7">
+    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="6" builtinId="33"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,19 +1212,15 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>2</v>
-      </c>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1250,15 +1228,19 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1267,18 +1249,14 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="6"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1288,7 +1266,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1308,7 +1286,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1328,16 +1306,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="6"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="9" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1347,14 +1325,18 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="6"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1362,36 +1344,36 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>3</v>
-      </c>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1399,17 +1381,13 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1419,17 +1397,17 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="6"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1441,15 +1419,15 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1461,7 +1439,7 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="6"/>
@@ -1481,15 +1459,15 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="9"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1501,15 +1479,15 @@
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="9"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1521,7 +1499,7 @@
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="6"/>
@@ -1541,17 +1519,17 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="6"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -1561,7 +1539,7 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="6"/>
@@ -1581,17 +1559,17 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="6"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -1619,20 +1597,18 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="3"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="G44" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -1641,14 +1617,20 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="E45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -1657,19 +1639,15 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="7"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -1677,15 +1655,19 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="7"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -1693,17 +1675,13 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="6"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -1713,16 +1691,16 @@
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="6"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="7"/>
       <c r="G49" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -1735,14 +1713,14 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="6"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="2"/>
       <c r="G50" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -1755,7 +1733,7 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="6"/>
@@ -1774,12 +1752,16 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C52" s="3"/>
       <c r="D52" s="6"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -1789,17 +1771,13 @@
       <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="6"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -1809,10 +1787,10 @@
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="6"/>
       <c r="E54" s="1"/>
@@ -1831,7 +1809,7 @@
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="6"/>
@@ -1851,7 +1829,7 @@
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="6"/>
@@ -1870,12 +1848,16 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C57" s="3"/>
       <c r="D57" s="6"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -1885,19 +1867,15 @@
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="6"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -1905,15 +1883,19 @@
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="6"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -1921,17 +1903,13 @@
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="6"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -1941,10 +1919,10 @@
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A61" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="6"/>
       <c r="E61" s="1"/>
@@ -1963,7 +1941,7 @@
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="6"/>
@@ -1982,12 +1960,16 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C63" s="3"/>
       <c r="D63" s="6"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -1997,16 +1979,12 @@
       <c r="N63" s="1"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2017,10 +1995,10 @@
       <c r="N64" s="1"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A65" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="6"/>
       <c r="E65" s="2"/>
@@ -2039,7 +2017,7 @@
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="6"/>
@@ -2058,11 +2036,15 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C67" s="3"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2073,17 +2055,13 @@
       <c r="N67" s="1"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="6"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -2093,13 +2071,17 @@
       <c r="N68" s="1"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
+      <c r="A69" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="6"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="9"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -2109,19 +2091,15 @@
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="6"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G70" s="9"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -2129,34 +2107,34 @@
       <c r="N70" s="1"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
+      <c r="A71" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="6"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A72" s="8" t="s">
-        <v>40</v>
-      </c>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="6"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -2164,15 +2142,19 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
+    <row r="73" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A73" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="6"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -2181,18 +2163,14 @@
       <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="6"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -2201,10 +2179,10 @@
       <c r="N74" s="1"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="A75" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="6"/>
       <c r="E75" s="1"/>
@@ -2223,7 +2201,7 @@
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="6"/>
@@ -2242,13 +2220,17 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="B77" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C77" s="3"/>
       <c r="D77" s="6"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -2257,18 +2239,14 @@
       <c r="N77" s="1"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="6"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -2277,10 +2255,10 @@
       <c r="N78" s="1"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="A79" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="6"/>
       <c r="E79" s="1"/>
@@ -2298,13 +2276,17 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="C80" s="3"/>
       <c r="D80" s="6"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -2312,18 +2294,14 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A81" s="8" t="s">
-        <v>46</v>
-      </c>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -2332,14 +2310,18 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
+    <row r="82" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A82" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -2349,17 +2331,13 @@
       <c r="N82" s="1"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="9" t="s">
-        <v>86</v>
-      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -2370,16 +2348,16 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="6"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G84" s="1"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -2389,12 +2367,16 @@
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
+      <c r="A85" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -2404,36 +2386,36 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A86" s="8" t="s">
-        <v>70</v>
-      </c>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="6"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
+    <row r="87" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A87" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="6"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -2441,19 +2423,15 @@
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="6"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -2462,7 +2440,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2482,7 +2460,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2501,92 +2479,92 @@
       <c r="N90" s="1"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="6"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A92" s="8" t="s">
-        <v>71</v>
-      </c>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="2"/>
+      <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
+    <row r="93" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A93" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="1"/>
+      <c r="E93" s="2"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="2"/>
+      <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="A95" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="6"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -2595,7 +2573,7 @@
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="6"/>
@@ -2615,18 +2593,18 @@
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="G97" s="1"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -2635,7 +2613,7 @@
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="6"/>
@@ -2655,7 +2633,7 @@
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="6"/>
@@ -2675,7 +2653,7 @@
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="6"/>
@@ -2694,43 +2672,43 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="B101" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C101" s="3"/>
       <c r="D101" s="6"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="6"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2747,6 +2725,26 @@
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
   <si>
     <t>Vecka:</t>
   </si>
@@ -219,12 +219,6 @@
   </si>
   <si>
     <t>1.4.3 Siluett (Hela &amp; separata)</t>
-  </si>
-  <si>
-    <t>4.2 Text</t>
-  </si>
-  <si>
-    <t>4.2.1 Dialoger</t>
   </si>
   <si>
     <t>6 Text</t>
@@ -733,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,10 +749,10 @@
       <c r="E1" s="3">
         <v>1</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>2</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>3</v>
       </c>
       <c r="H1" s="3">
@@ -794,7 +788,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -831,11 +825,11 @@
       <c r="C4" s="3"/>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1236,10 +1230,10 @@
       <c r="C25" s="3"/>
       <c r="D25" s="6"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1272,10 +1266,10 @@
       <c r="C27" s="3"/>
       <c r="D27" s="6"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1292,10 +1286,10 @@
       <c r="C28" s="3"/>
       <c r="D28" s="6"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1312,10 +1306,10 @@
       <c r="C29" s="3"/>
       <c r="D29" s="6"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1372,7 +1366,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1539,7 +1533,7 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="6"/>
@@ -1559,7 +1553,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="6"/>
@@ -1662,7 +1656,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="6"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="7"/>
+      <c r="F47" s="2"/>
       <c r="G47" s="1"/>
       <c r="H47" s="7"/>
       <c r="I47" s="9" t="s">
@@ -1698,9 +1692,9 @@
       <c r="C49" s="3"/>
       <c r="D49" s="6"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -1738,9 +1732,9 @@
       <c r="C51" s="3"/>
       <c r="D51" s="6"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="2"/>
       <c r="G51" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -1758,9 +1752,9 @@
       <c r="C52" s="3"/>
       <c r="D52" s="6"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="2"/>
       <c r="G52" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2151,9 +2145,9 @@
       <c r="D73" s="6"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="7"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2187,9 +2181,9 @@
       <c r="D75" s="6"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="7"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -2207,9 +2201,9 @@
       <c r="D76" s="6"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="7"/>
+      <c r="G76" s="2"/>
       <c r="H76" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -2227,9 +2221,9 @@
       <c r="D77" s="6"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="7"/>
+      <c r="G77" s="2"/>
       <c r="H77" s="9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -2254,19 +2248,19 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>68</v>
+    <row r="79" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A79" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -2276,17 +2270,13 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="6"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -2295,13 +2285,17 @@
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
+      <c r="A81" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -2310,18 +2304,18 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A82" s="8" t="s">
-        <v>46</v>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="6"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="F82" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -2346,20 +2340,20 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>44</v>
+    <row r="84" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A84" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -2367,16 +2361,12 @@
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -2387,24 +2377,28 @@
       <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
+      <c r="A86" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="6"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A87" s="8" t="s">
-        <v>70</v>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2423,15 +2417,19 @@
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
+      <c r="A88" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="6"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -2439,59 +2437,51 @@
       <c r="N88" s="1"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="6"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>84</v>
+    <row r="90" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A90" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="2"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="7"/>
+      <c r="G90" s="1"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="6"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -2499,48 +2489,56 @@
       <c r="N91" s="1"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
+      <c r="A92" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="2"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A93" s="8" t="s">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="6"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="1"/>
+      <c r="F93" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="G93" s="1"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="B94" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="C94" s="3"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -2551,19 +2549,19 @@
       <c r="N94" s="1"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B95" s="3"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="C95" s="3"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="2"/>
+      <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="9" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -2573,18 +2571,18 @@
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -2593,18 +2591,18 @@
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -2613,7 +2611,7 @@
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="6"/>
@@ -2632,29 +2630,25 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
-      <c r="B99" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="6"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3" t="s">
+      <c r="A100" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="6"/>
       <c r="E100" s="1"/>
@@ -2662,19 +2656,19 @@
       <c r="G100" s="1"/>
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
-      <c r="J100" s="9" t="s">
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3" t="s">
+      <c r="A101" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="6"/>
       <c r="E101" s="1"/>
@@ -2682,69 +2676,13 @@
       <c r="G101" s="1"/>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
-      <c r="J101" s="9" t="s">
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
   <si>
     <t>Vecka:</t>
   </si>
@@ -167,9 +167,6 @@
     <t>3.3.3 Kran (Extra)</t>
   </si>
   <si>
-    <t xml:space="preserve">        Tutorialram</t>
-  </si>
-  <si>
     <t>3.3.6 Exit-dörr (Mål)</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t>3.1.6 Balkongräcke</t>
   </si>
   <si>
-    <t>60% Färdigt</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -270,6 +264,9 @@
   </si>
   <si>
     <t>73% Färdigt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Tutorialram 2st</t>
   </si>
 </sst>
 </file>
@@ -729,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,12 +774,12 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -798,7 +795,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -863,7 +860,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -883,7 +880,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -921,7 +918,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -941,7 +938,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -961,7 +958,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -997,7 +994,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1018,12 +1015,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
       <c r="G14" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1040,7 +1037,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1060,7 +1057,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
       <c r="G16" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1080,7 +1077,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
       <c r="G17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1093,14 +1090,14 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
       <c r="G18" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1128,7 +1125,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1189,7 +1186,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
@@ -1233,7 +1230,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1269,7 +1266,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1289,7 +1286,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1309,7 +1306,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1329,7 +1326,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1366,7 +1363,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1400,7 +1397,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1419,7 +1416,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1440,7 +1437,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
       <c r="G36" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1460,7 +1457,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
       <c r="G37" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1479,7 +1476,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="2"/>
       <c r="F38" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
@@ -1500,7 +1497,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
       <c r="G39" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1513,14 +1510,14 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="6"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
       <c r="G40" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1533,7 +1530,7 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="6"/>
@@ -1553,7 +1550,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="6"/>
@@ -1573,14 +1570,14 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="6"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
       <c r="G43" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1593,14 +1590,14 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="6"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
       <c r="G44" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -1618,13 +1615,13 @@
       <c r="C45" s="3"/>
       <c r="D45" s="6"/>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="G45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="9"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -1660,7 +1657,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="7"/>
       <c r="I47" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -1694,7 +1691,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="2"/>
       <c r="G49" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -1714,7 +1711,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
       <c r="G50" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -1734,7 +1731,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="2"/>
       <c r="G51" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -1754,7 +1751,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
       <c r="G52" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -1790,7 +1787,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
       <c r="G54" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -1810,7 +1807,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="2"/>
       <c r="G55" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -1830,7 +1827,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="2"/>
       <c r="G56" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -1850,7 +1847,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="2"/>
       <c r="G57" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -1922,7 +1919,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="2"/>
       <c r="G61" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -1942,7 +1939,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
       <c r="G62" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -1962,7 +1959,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="2"/>
       <c r="G63" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -1997,7 +1994,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="2"/>
       <c r="F65" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -2017,7 +2014,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="2"/>
       <c r="F66" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -2037,7 +2034,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="2"/>
       <c r="F67" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -2066,7 +2063,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2074,7 +2071,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="2"/>
       <c r="G69" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -2102,7 +2099,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2110,9 +2107,9 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="7"/>
+      <c r="H71" s="2"/>
       <c r="I71" s="9" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -2147,7 +2144,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="2"/>
       <c r="H73" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2183,7 +2180,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="2"/>
       <c r="H75" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -2203,7 +2200,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="2"/>
       <c r="H76" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -2223,7 +2220,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="2"/>
       <c r="H77" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -2258,7 +2255,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -2294,7 +2291,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -2313,7 +2310,7 @@
       <c r="D82" s="6"/>
       <c r="E82" s="2"/>
       <c r="F82" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -2342,7 +2339,7 @@
     </row>
     <row r="84" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2378,7 +2375,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2398,7 +2395,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2418,7 +2415,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2454,7 +2451,7 @@
     </row>
     <row r="90" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2467,7 +2464,7 @@
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -2490,7 +2487,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2501,7 +2498,7 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -2511,13 +2508,13 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="6"/>
       <c r="E93" s="2"/>
       <c r="F93" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -2531,13 +2528,13 @@
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="6"/>
       <c r="E94" s="2"/>
       <c r="F94" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -2551,7 +2548,7 @@
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="6"/>
@@ -2571,7 +2568,7 @@
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="6"/>
@@ -2591,7 +2588,7 @@
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="6"/>
@@ -2611,7 +2608,7 @@
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="6"/>
@@ -2646,7 +2643,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2666,7 +2663,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -38,9 +38,6 @@
     <t>0% Färdigt</t>
   </si>
   <si>
-    <t>~85% Färdigt</t>
-  </si>
-  <si>
     <t>1.2 Kropp (Hjärnskal)</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t xml:space="preserve">     Tutorialram 2st</t>
+  </si>
+  <si>
+    <t>98% Färdigt</t>
   </si>
 </sst>
 </file>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,12 +774,12 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -795,7 +795,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="7"/>
       <c r="H4" s="9" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -860,7 +860,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -880,7 +880,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -890,7 +890,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -911,14 +911,14 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -932,13 +932,13 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -952,13 +952,13 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -987,14 +987,14 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1008,19 +1008,19 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
       <c r="G14" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1030,14 +1030,14 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1050,14 +1050,14 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
       <c r="G16" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1070,14 +1070,14 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
       <c r="G17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1090,14 +1090,14 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
       <c r="G18" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1125,16 +1125,16 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="9" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1146,15 +1146,15 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="9" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1166,15 +1166,15 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="9" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1186,7 +1186,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
@@ -1230,7 +1230,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1266,7 +1266,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1286,7 +1286,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1306,7 +1306,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1326,7 +1326,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1363,7 +1363,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1397,7 +1397,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1410,13 +1410,13 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="6"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1430,14 +1430,14 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="6"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
       <c r="G36" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1450,14 +1450,14 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="6"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
       <c r="G37" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1470,13 +1470,13 @@
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="6"/>
       <c r="E38" s="2"/>
       <c r="F38" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
@@ -1490,14 +1490,14 @@
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="6"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
       <c r="G39" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1510,14 +1510,14 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="6"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
       <c r="G40" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1530,7 +1530,7 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="6"/>
@@ -1550,7 +1550,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="6"/>
@@ -1570,14 +1570,14 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="6"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
       <c r="G43" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1590,14 +1590,14 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="6"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
       <c r="G44" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -1609,17 +1609,17 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="6"/>
       <c r="E45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="1"/>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1657,7 +1657,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="7"/>
       <c r="I47" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1691,7 +1691,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="2"/>
       <c r="G49" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -1704,14 +1704,14 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="6"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
       <c r="G50" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -1724,14 +1724,14 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="6"/>
       <c r="E51" s="1"/>
       <c r="F51" s="2"/>
       <c r="G51" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -1744,14 +1744,14 @@
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="6"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
       <c r="G52" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1787,7 +1787,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
       <c r="G54" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -1800,14 +1800,14 @@
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="6"/>
       <c r="E55" s="1"/>
       <c r="F55" s="2"/>
       <c r="G55" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -1820,14 +1820,14 @@
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="6"/>
       <c r="E56" s="1"/>
       <c r="F56" s="2"/>
       <c r="G56" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -1840,14 +1840,14 @@
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="6"/>
       <c r="E57" s="1"/>
       <c r="F57" s="2"/>
       <c r="G57" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1919,7 +1919,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="2"/>
       <c r="G61" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -1932,14 +1932,14 @@
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="6"/>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
       <c r="G62" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -1952,14 +1952,14 @@
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="6"/>
       <c r="E63" s="1"/>
       <c r="F63" s="2"/>
       <c r="G63" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -1987,14 +1987,14 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="6"/>
       <c r="E65" s="2"/>
       <c r="F65" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -2008,13 +2008,13 @@
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="6"/>
       <c r="E66" s="2"/>
       <c r="F66" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -2028,13 +2028,13 @@
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="6"/>
       <c r="E67" s="2"/>
       <c r="F67" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2071,7 +2071,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="2"/>
       <c r="G69" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2109,7 +2109,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="2"/>
       <c r="I71" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="73" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2144,7 +2144,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="2"/>
       <c r="H73" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2180,7 +2180,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="2"/>
       <c r="H75" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -2192,7 +2192,7 @@
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="6"/>
@@ -2200,7 +2200,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="2"/>
       <c r="H76" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -2212,7 +2212,7 @@
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="6"/>
@@ -2220,7 +2220,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="2"/>
       <c r="H77" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="79" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2255,7 +2255,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2291,7 +2291,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -2303,14 +2303,14 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="6"/>
       <c r="E82" s="2"/>
       <c r="F82" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="84" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="90" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2464,7 +2464,7 @@
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2498,7 +2498,7 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -2508,13 +2508,13 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="6"/>
       <c r="E93" s="2"/>
       <c r="F93" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -2528,13 +2528,13 @@
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="6"/>
       <c r="E94" s="2"/>
       <c r="F94" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -2548,7 +2548,7 @@
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="6"/>
@@ -2568,7 +2568,7 @@
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="6"/>
@@ -2588,7 +2588,7 @@
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="6"/>
@@ -2608,7 +2608,7 @@
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="6"/>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
   <si>
     <t>Vecka:</t>
   </si>
@@ -254,9 +254,6 @@
     <t>3.1.9 Trappräcke</t>
   </si>
   <si>
-    <t>6.2 Menyer</t>
-  </si>
-  <si>
     <t>6.3 Menybakgrund</t>
   </si>
   <si>
@@ -267,13 +264,91 @@
   </si>
   <si>
     <t>98% Färdigt</t>
+  </si>
+  <si>
+    <t>8 Tillkommet</t>
+  </si>
+  <si>
+    <t>8.1 SGA-Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1.1 Widescreenbild </t>
+  </si>
+  <si>
+    <t>8.1.2 Flertal ikoner</t>
+  </si>
+  <si>
+    <t>8.1.3 Profilbild</t>
+  </si>
+  <si>
+    <t>9 Eget arbete</t>
+  </si>
+  <si>
+    <t>Halvdag</t>
+  </si>
+  <si>
+    <t>10 Inlämningar</t>
+  </si>
+  <si>
+    <t>10.1 Seminarie</t>
+  </si>
+  <si>
+    <t>#2 Inl. 3/2</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>Logga</t>
+  </si>
+  <si>
+    <t>Omslag</t>
+  </si>
+  <si>
+    <t>#3 Inl. 11/3</t>
+  </si>
+  <si>
+    <t>Totalinl.</t>
+  </si>
+  <si>
+    <t>Planering</t>
+  </si>
+  <si>
+    <t>Indv.</t>
+  </si>
+  <si>
+    <t>Heldag</t>
+  </si>
+  <si>
+    <t>1-2 Dagar</t>
+  </si>
+  <si>
+    <t>2-3 Dagar</t>
+  </si>
+  <si>
+    <t>3-4 Dagar</t>
+  </si>
+  <si>
+    <t>Rapportinl.</t>
+  </si>
+  <si>
+    <t>10.2 Övriga inlämningar</t>
+  </si>
+  <si>
+    <t>6.3 InGameMeny</t>
+  </si>
+  <si>
+    <t>6.2 Huvudmeny</t>
+  </si>
+  <si>
+    <t>30% Färdigt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,8 +405,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,8 +459,13 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -394,8 +488,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -403,8 +527,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -417,12 +542,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="7"/>
+    <xf numFmtId="16" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
     <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Accent2" xfId="6" builtinId="33"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,16 +854,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -825,7 +958,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="7"/>
       <c r="H4" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1361,10 +1494,10 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="H32" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1536,11 +1669,11 @@
       <c r="D41" s="6"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="9" t="s">
+      <c r="G41" s="7"/>
+      <c r="H41" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -1556,11 +1689,11 @@
       <c r="D42" s="6"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="9" t="s">
+      <c r="G42" s="7"/>
+      <c r="H42" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -1615,7 +1748,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="6"/>
       <c r="E45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="9" t="s">
@@ -2395,7 +2528,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2405,7 +2538,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="9" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -2415,7 +2548,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2434,92 +2567,92 @@
       <c r="N88" s="1"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
+      <c r="A89" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="6"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A90" s="8" t="s">
-        <v>66</v>
-      </c>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="2"/>
+      <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+    <row r="91" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A91" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="2"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="2"/>
+      <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="A93" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="6"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -2528,7 +2661,7 @@
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="6"/>
@@ -2548,18 +2681,18 @@
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="G95" s="1"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -2568,7 +2701,7 @@
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="6"/>
@@ -2588,7 +2721,7 @@
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="6"/>
@@ -2608,7 +2741,7 @@
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="6"/>
@@ -2627,43 +2760,43 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="C99" s="3"/>
       <c r="D99" s="6"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="6"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2681,9 +2814,351 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A104" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A111" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K111" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L111" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M111" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N111" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="1:15" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H115" s="1"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="14">
+        <v>41335</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="108">
   <si>
     <t>Vecka:</t>
   </si>
@@ -254,9 +254,6 @@
     <t>3.1.9 Trappräcke</t>
   </si>
   <si>
-    <t>6.3 Menybakgrund</t>
-  </si>
-  <si>
     <t>73% Färdigt</t>
   </si>
   <si>
@@ -341,7 +338,7 @@
     <t>6.2 Huvudmeny</t>
   </si>
   <si>
-    <t>30% Färdigt</t>
+    <t>70% Färdigt</t>
   </si>
 </sst>
 </file>
@@ -854,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+      <selection activeCell="S93" sqref="S93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +955,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="7"/>
       <c r="H4" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1495,7 +1492,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="7"/>
       <c r="H32" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1748,7 +1745,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="6"/>
       <c r="E45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="9" t="s">
@@ -2528,7 +2525,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2538,7 +2535,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -2548,7 +2545,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2567,92 +2564,92 @@
       <c r="N88" s="1"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="6"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
+    <row r="90" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A90" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="2"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A91" s="8" t="s">
-        <v>66</v>
-      </c>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="2"/>
+      <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
+      <c r="A92" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="2"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B93" s="3"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="C93" s="3"/>
       <c r="D93" s="6"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="1"/>
+      <c r="F93" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="G93" s="1"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -2661,7 +2658,7 @@
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="6"/>
@@ -2681,18 +2678,18 @@
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -2701,7 +2698,7 @@
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="6"/>
@@ -2718,10 +2715,10 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="6"/>
@@ -2738,10 +2735,10 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="6"/>
@@ -2758,45 +2755,45 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
-      <c r="B99" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="6"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="6"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2814,83 +2811,83 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>75</v>
-      </c>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="6"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
+    <row r="103" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A103" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="6"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A104" s="8" t="s">
-        <v>83</v>
-      </c>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="6"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="6"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="6"/>
       <c r="E106" s="1"/>
@@ -2906,7 +2903,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
         <v>85</v>
@@ -2926,7 +2923,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
         <v>86</v>
@@ -2946,166 +2943,166 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
-      <c r="B109" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="6"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
+    <row r="110" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A110" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="6"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A111" s="8" t="s">
+      <c r="G110" s="12" t="s">
         <v>88</v>
       </c>
+      <c r="H110" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J110" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K110" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L110" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M110" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N110" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="6"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="12" t="s">
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="1:15" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H111" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I111" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J111" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="K111" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="L111" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="M111" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="N111" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="6"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
       <c r="N112" s="1"/>
-    </row>
-    <row r="113" spans="1:15" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="O112" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="6"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="3"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="6"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
+      <c r="G114" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
+      <c r="I114" s="9"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
+      <c r="M114" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="N114" s="1"/>
-      <c r="O114" s="13" t="s">
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="6"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H115" s="1"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="14">
+        <v>41335</v>
+      </c>
       <c r="I115" s="9"/>
       <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
+      <c r="K115" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="L115" s="1"/>
-      <c r="M115" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="6"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="9"/>
-      <c r="H116" s="14">
-        <v>41335</v>
+      <c r="H116" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="1"/>
@@ -3123,9 +3120,9 @@
       <c r="D117" s="6"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="9"/>
+      <c r="G117" s="1"/>
       <c r="H117" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="1"/>
@@ -3135,26 +3132,6 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I118" s="9"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="108">
   <si>
     <t>Vecka:</t>
   </si>
@@ -176,24 +176,15 @@
     <t>~19% Färdigt</t>
   </si>
   <si>
-    <t>33% Färdigt</t>
-  </si>
-  <si>
     <t>Grafik</t>
   </si>
   <si>
-    <t>10% Tid har gått</t>
-  </si>
-  <si>
     <t>3.1.6 Balkongräcke</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>40% Färdigt</t>
-  </si>
-  <si>
     <t>20% Färdigt</t>
   </si>
   <si>
@@ -254,9 +245,6 @@
     <t>3.1.9 Trappräcke</t>
   </si>
   <si>
-    <t>73% Färdigt</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Tutorialram 2st</t>
   </si>
   <si>
@@ -339,13 +327,25 @@
   </si>
   <si>
     <t>70% Färdigt</t>
+  </si>
+  <si>
+    <t>7.1.7 Bakgrundsbild</t>
+  </si>
+  <si>
+    <t>90% Färdigt</t>
+  </si>
+  <si>
+    <t>80% Färdigt</t>
+  </si>
+  <si>
+    <t>20% Tid har gått</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +411,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -526,7 +533,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -540,9 +547,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="7"/>
     <xf numFmtId="16" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="7" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -851,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O117"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S93" sqref="S93"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P111" sqref="P111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,12 +912,12 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -955,7 +963,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="7"/>
       <c r="H4" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1150,7 +1158,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1220,7 +1228,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
@@ -1255,7 +1263,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1316,7 +1324,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
@@ -1492,7 +1500,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="7"/>
       <c r="H32" s="9" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1640,7 +1648,7 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="6"/>
@@ -1660,7 +1668,7 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="6"/>
@@ -1680,7 +1688,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="6"/>
@@ -1700,7 +1708,7 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="6"/>
@@ -1720,7 +1728,7 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="6"/>
@@ -1745,7 +1753,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="6"/>
       <c r="E45" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="9" t="s">
@@ -1787,7 +1795,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="7"/>
       <c r="I47" s="9" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2385,7 +2393,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -2469,7 +2477,7 @@
     </row>
     <row r="84" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2505,7 +2513,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2525,7 +2533,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2535,7 +2543,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -2545,7 +2553,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2581,7 +2589,7 @@
     </row>
     <row r="90" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2594,7 +2602,7 @@
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -2617,7 +2625,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2628,7 +2636,7 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -2638,7 +2646,7 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="6"/>
@@ -2658,7 +2666,7 @@
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="6"/>
@@ -2678,7 +2686,7 @@
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="6"/>
@@ -2698,7 +2706,7 @@
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="6"/>
@@ -2715,10 +2723,10 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="6"/>
@@ -2735,10 +2743,10 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="6"/>
@@ -2755,45 +2763,45 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="C99" s="3"/>
       <c r="D99" s="6"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>74</v>
-      </c>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="6"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2811,83 +2819,83 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="6"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A103" s="8" t="s">
-        <v>82</v>
-      </c>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="6"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
+    <row r="104" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A104" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="6"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>83</v>
-      </c>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="6"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3" t="s">
-        <v>84</v>
-      </c>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="6"/>
       <c r="E106" s="1"/>
@@ -2903,10 +2911,10 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="6"/>
@@ -2923,10 +2931,10 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="6"/>
@@ -2943,171 +2951,171 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="B109" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C109" s="3"/>
       <c r="D109" s="6"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A110" s="8" t="s">
-        <v>87</v>
-      </c>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="6"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H110" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I110" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J110" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="K110" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="L110" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="M110" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="N110" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A111" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="6"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-    </row>
-    <row r="112" spans="1:15" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="G111" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K111" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L111" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M111" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="N111" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="6"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
       <c r="N112" s="1"/>
-      <c r="O112" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="3"/>
+    </row>
+    <row r="113" spans="1:15" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="6"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
       <c r="N113" s="1"/>
-      <c r="O113" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="O113" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="6"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="12" t="s">
-        <v>91</v>
-      </c>
+      <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-      <c r="I114" s="9"/>
+      <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
-      <c r="M114" s="12" t="s">
-        <v>95</v>
-      </c>
+      <c r="M114" s="1"/>
       <c r="N114" s="1"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O114" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="6"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="14">
-        <v>41335</v>
-      </c>
+      <c r="G115" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H115" s="1"/>
       <c r="I115" s="9"/>
       <c r="J115" s="1"/>
-      <c r="K115" s="12" t="s">
-        <v>92</v>
-      </c>
+      <c r="K115" s="1"/>
       <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
+      <c r="M115" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
+      <c r="A116" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="6"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="9"/>
-      <c r="H116" s="15" t="s">
-        <v>98</v>
+      <c r="H116" s="13">
+        <v>41335</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="1"/>
       <c r="K116" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
@@ -3120,18 +3128,38 @@
       <c r="D117" s="6"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="15" t="s">
-        <v>97</v>
+      <c r="G117" s="9"/>
+      <c r="H117" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="1"/>
       <c r="K117" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="112">
   <si>
     <t>Vecka:</t>
   </si>
@@ -260,9 +260,6 @@
     <t xml:space="preserve">8.1.1 Widescreenbild </t>
   </si>
   <si>
-    <t>8.1.2 Flertal ikoner</t>
-  </si>
-  <si>
     <t>8.1.3 Profilbild</t>
   </si>
   <si>
@@ -339,6 +336,21 @@
   </si>
   <si>
     <t>20% Tid har gått</t>
+  </si>
+  <si>
+    <t>50% Färdigt</t>
+  </si>
+  <si>
+    <t>8.1.2 Flertal ikoner Ca. 5st</t>
+  </si>
+  <si>
+    <t>8.2 Tutorial</t>
+  </si>
+  <si>
+    <t>8.2.1 Skisser</t>
+  </si>
+  <si>
+    <t>8.2.2 Renritning</t>
   </si>
 </sst>
 </file>
@@ -859,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P111" sqref="P111"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
@@ -1500,7 +1512,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="7"/>
       <c r="H32" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1694,9 +1706,9 @@
       <c r="D42" s="6"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="9" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1795,7 +1807,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="7"/>
       <c r="I47" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2533,7 +2545,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2543,7 +2555,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -2553,7 +2565,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2766,7 +2778,7 @@
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="6"/>
@@ -2867,7 +2879,7 @@
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
       <c r="I104" s="9" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -2903,7 +2915,7 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
       <c r="I106" s="9" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -2920,11 +2932,11 @@
       <c r="D107" s="6"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -2934,7 +2946,7 @@
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="6"/>
@@ -2954,17 +2966,17 @@
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="6"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -2987,49 +2999,39 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A111" s="8" t="s">
-        <v>83</v>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="6"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="I111" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J111" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="K111" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="L111" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="M111" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="N111" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="B112" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="C112" s="3"/>
       <c r="D112" s="6"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -3037,28 +3039,27 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B113" s="3"/>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="C113" s="3"/>
       <c r="D113" s="6"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
       <c r="N113" s="1"/>
-      <c r="O113" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3073,75 +3074,79 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
-      <c r="O114" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>86</v>
+    </row>
+    <row r="115" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A115" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="6"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H115" s="1"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
+      <c r="G115" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K115" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L115" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="M115" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N115" s="1"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N115" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="6"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="13">
-        <v>41335</v>
-      </c>
-      <c r="I116" s="9"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
       <c r="J116" s="1"/>
-      <c r="K116" s="12" t="s">
-        <v>88</v>
-      </c>
+      <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
+    <row r="117" spans="1:15" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="6"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I117" s="9"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
       <c r="N117" s="1"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O117" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3149,17 +3154,100 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I118" s="9"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
       <c r="J118" s="1"/>
-      <c r="K118" s="12" t="s">
-        <v>90</v>
-      </c>
+      <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
+      <c r="O118" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H119" s="1"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="13">
+        <v>41335</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,9 +1686,9 @@
       <c r="D41" s="6"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="7"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="9" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
   <si>
     <t>Vecka:</t>
   </si>
@@ -149,9 +149,6 @@
     <t>5.1 Koceptskisser</t>
   </si>
   <si>
-    <t>5.2 Moodboard (3st)</t>
-  </si>
-  <si>
     <t>5 Koncept</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>20% Färdigt</t>
-  </si>
-  <si>
     <t>11% Färdigt</t>
   </si>
   <si>
@@ -218,18 +212,6 @@
     <t>7.1.2 Rullband</t>
   </si>
   <si>
-    <t>7.1.3 Kugghjul</t>
-  </si>
-  <si>
-    <t>7.1.4 Fönster</t>
-  </si>
-  <si>
-    <t>7.1.5 Vägg- &amp; takbalkar</t>
-  </si>
-  <si>
-    <t>7.1.6 Hängande sladdar</t>
-  </si>
-  <si>
     <t>7.2 Detaljer</t>
   </si>
   <si>
@@ -332,9 +314,6 @@
     <t>90% Färdigt</t>
   </si>
   <si>
-    <t>80% Färdigt</t>
-  </si>
-  <si>
     <t>20% Tid har gått</t>
   </si>
   <si>
@@ -344,13 +323,19 @@
     <t>8.1.2 Flertal ikoner Ca. 5st</t>
   </si>
   <si>
-    <t>8.2 Tutorial</t>
-  </si>
-  <si>
     <t>8.2.1 Skisser</t>
   </si>
   <si>
     <t>8.2.2 Renritning</t>
+  </si>
+  <si>
+    <t>5.2 Moodboard (4st)</t>
+  </si>
+  <si>
+    <t>75% Färdigt</t>
+  </si>
+  <si>
+    <t>8.2 Tutorial hjälpbilder</t>
   </si>
 </sst>
 </file>
@@ -871,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O122"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R96" sqref="R96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,12 +909,12 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -945,7 +930,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -975,7 +960,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="7"/>
       <c r="H4" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1010,7 +995,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1030,7 +1015,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1068,7 +1053,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1088,7 +1073,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1108,7 +1093,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1144,7 +1129,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1165,12 +1150,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
       <c r="G14" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1187,7 +1172,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1207,7 +1192,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
       <c r="G16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1227,7 +1212,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
       <c r="G17" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1240,14 +1225,14 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
       <c r="G18" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1275,7 +1260,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1284,7 +1269,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="2"/>
       <c r="H20" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1304,7 +1289,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
       <c r="H21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1324,7 +1309,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="2"/>
       <c r="H22" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1336,7 +1321,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
@@ -1380,7 +1365,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1416,7 +1401,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1436,7 +1421,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1456,7 +1441,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1476,7 +1461,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1512,7 +1497,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="7"/>
       <c r="H32" s="9" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1547,7 +1532,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1566,7 +1551,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1580,14 +1565,14 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="6"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
       <c r="G36" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1607,7 +1592,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
       <c r="G37" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1626,7 +1611,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="2"/>
       <c r="F38" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
@@ -1647,7 +1632,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
       <c r="G39" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1660,14 +1645,14 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="6"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
       <c r="G40" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1680,7 +1665,7 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="6"/>
@@ -1688,7 +1673,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="2"/>
       <c r="H41" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1700,7 +1685,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="6"/>
@@ -1708,7 +1693,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="2"/>
       <c r="H42" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1720,14 +1705,14 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="6"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
       <c r="G43" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1740,14 +1725,14 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="6"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
       <c r="G44" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -1765,11 +1750,11 @@
       <c r="C45" s="3"/>
       <c r="D45" s="6"/>
       <c r="E45" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="1"/>
@@ -1807,7 +1792,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="7"/>
       <c r="I47" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -1841,7 +1826,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="2"/>
       <c r="G49" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -1861,7 +1846,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
       <c r="G50" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -1881,7 +1866,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="2"/>
       <c r="G51" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -1901,7 +1886,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
       <c r="G52" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -1937,7 +1922,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
       <c r="G54" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -1957,7 +1942,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="2"/>
       <c r="G55" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -1977,7 +1962,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="2"/>
       <c r="G56" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -1997,7 +1982,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="2"/>
       <c r="G57" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -2025,7 +2010,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2069,7 +2054,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="2"/>
       <c r="G61" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2089,7 +2074,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
       <c r="G62" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2109,7 +2094,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="2"/>
       <c r="G63" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -2144,7 +2129,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="2"/>
       <c r="F65" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -2164,7 +2149,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="2"/>
       <c r="F66" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -2178,13 +2163,13 @@
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="6"/>
       <c r="E67" s="2"/>
       <c r="F67" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -2213,7 +2198,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2221,7 +2206,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="2"/>
       <c r="G69" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -2249,7 +2234,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2259,7 +2244,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="2"/>
       <c r="I71" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -2294,7 +2279,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="2"/>
       <c r="H73" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2330,7 +2315,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="2"/>
       <c r="H75" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -2350,7 +2335,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="2"/>
       <c r="H76" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -2370,7 +2355,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="2"/>
       <c r="H77" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -2397,7 +2382,7 @@
     </row>
     <row r="79" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2405,7 +2390,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -2441,7 +2426,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -2453,14 +2438,14 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="6"/>
       <c r="E82" s="2"/>
       <c r="F82" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -2489,7 +2474,7 @@
     </row>
     <row r="84" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2525,7 +2510,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2545,7 +2530,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2555,7 +2540,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -2565,7 +2550,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2601,7 +2586,7 @@
     </row>
     <row r="90" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2614,7 +2599,7 @@
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -2637,7 +2622,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2648,7 +2633,7 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="9" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -2658,13 +2643,13 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="6"/>
       <c r="E93" s="2"/>
       <c r="F93" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -2678,13 +2663,13 @@
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="6"/>
       <c r="E94" s="2"/>
       <c r="F94" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -2698,18 +2683,18 @@
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="6"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -2717,29 +2702,25 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-      <c r="B96" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="6"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="A97" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="6"/>
       <c r="E97" s="1"/>
@@ -2747,19 +2728,19 @@
       <c r="G97" s="1"/>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
-      <c r="J97" s="9" t="s">
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="A98" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="6"/>
       <c r="E98" s="1"/>
@@ -2767,44 +2748,44 @@
       <c r="G98" s="1"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
-      <c r="J98" s="9" t="s">
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
-      <c r="B99" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="6"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
+    <row r="100" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A100" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="6"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -2812,54 +2793,54 @@
       <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="6"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="6"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+      <c r="G102" s="7"/>
       <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="I102" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="B103" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C103" s="3"/>
       <c r="D103" s="6"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -2867,11 +2848,11 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A104" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B104" s="3"/>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="C104" s="3"/>
       <c r="D104" s="6"/>
       <c r="E104" s="1"/>
@@ -2879,7 +2860,7 @@
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
       <c r="I104" s="9" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -2889,13 +2870,17 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="B105" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="C105" s="3"/>
       <c r="D105" s="6"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -2904,19 +2889,15 @@
       <c r="N105" s="1"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="6"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -2924,19 +2905,19 @@
       <c r="N106" s="1"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="A107" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="6"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="2"/>
       <c r="H107" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I107" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="I107" s="9"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -2946,17 +2927,17 @@
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="6"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -2966,7 +2947,7 @@
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="6"/>
@@ -2974,7 +2955,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="2"/>
       <c r="H109" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -2999,39 +2980,49 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>109</v>
+    <row r="111" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A111" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="6"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G111" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K111" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L111" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M111" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N111" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
-      <c r="B112" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="6"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -3039,27 +3030,28 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3" t="s">
-        <v>111</v>
-      </c>
+    <row r="113" spans="1:15" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="6"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
       <c r="N113" s="1"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O113" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3074,79 +3066,75 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
-    </row>
-    <row r="115" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A115" s="8" t="s">
-        <v>82</v>
+      <c r="O114" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="6"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H115" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I115" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J115" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K115" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L115" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="G115" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H115" s="1"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
       <c r="M115" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="N115" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="6"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="13">
+        <v>41335</v>
+      </c>
+      <c r="I116" s="9"/>
       <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
+      <c r="K116" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="8" t="s">
-        <v>84</v>
-      </c>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="6"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="12"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
       <c r="N117" s="1"/>
-      <c r="O117" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3154,100 +3142,17 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
+      <c r="H118" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I118" s="9"/>
       <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
+      <c r="K118" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
-      <c r="O118" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H119" s="1"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N119" s="1"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="13">
-        <v>41335</v>
-      </c>
-      <c r="I120" s="9"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I121" s="9"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I122" s="9"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R96" sqref="R96"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,9 +958,9 @@
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="9" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1327,9 +1327,9 @@
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="9" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P118" sqref="P118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
   <si>
     <t>Vecka:</t>
   </si>
@@ -230,9 +230,6 @@
     <t xml:space="preserve">     Tutorialram 2st</t>
   </si>
   <si>
-    <t>98% Färdigt</t>
-  </si>
-  <si>
     <t>8 Tillkommet</t>
   </si>
   <si>
@@ -311,12 +308,6 @@
     <t>7.1.7 Bakgrundsbild</t>
   </si>
   <si>
-    <t>90% Färdigt</t>
-  </si>
-  <si>
-    <t>20% Tid har gått</t>
-  </si>
-  <si>
     <t>50% Färdigt</t>
   </si>
   <si>
@@ -332,10 +323,13 @@
     <t>5.2 Moodboard (4st)</t>
   </si>
   <si>
-    <t>75% Färdigt</t>
-  </si>
-  <si>
     <t>8.2 Tutorial hjälpbilder</t>
+  </si>
+  <si>
+    <t>30% Tid har gått</t>
+  </si>
+  <si>
+    <t>30% Färdigt</t>
   </si>
 </sst>
 </file>
@@ -544,10 +538,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="7" applyFont="1"/>
+    <xf numFmtId="16" fontId="9" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -858,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P118" sqref="P118"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,10 +878,10 @@
       <c r="F1" s="3">
         <v>2</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>3</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="4">
         <v>4</v>
       </c>
       <c r="I1" s="3">
@@ -909,7 +903,7 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
@@ -921,7 +915,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -1495,9 +1489,9 @@
       <c r="D32" s="6"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="9" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1790,9 +1784,9 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="7"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="9" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -2018,9 +2012,9 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="7"/>
+      <c r="H59" s="2"/>
       <c r="I59" s="9" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -2438,7 +2432,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2481,7 +2475,7 @@
       <c r="D84" s="6"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="7"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="7"/>
       <c r="I84" s="9" t="s">
         <v>6</v>
@@ -2517,7 +2511,7 @@
       <c r="D86" s="6"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="7"/>
+      <c r="G86" s="2"/>
       <c r="H86" s="7"/>
       <c r="I86" s="9" t="s">
         <v>6</v>
@@ -2530,17 +2524,17 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="6"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="7"/>
+      <c r="G87" s="2"/>
       <c r="H87" s="7"/>
       <c r="I87" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -2550,14 +2544,14 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="6"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="7"/>
+      <c r="G88" s="2"/>
       <c r="H88" s="7"/>
       <c r="I88" s="9" t="s">
         <v>6</v>
@@ -2630,11 +2624,11 @@
       <c r="E92" s="2"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="9" t="s">
-        <v>105</v>
-      </c>
+      <c r="H92" s="2"/>
+      <c r="I92" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -2683,7 +2677,7 @@
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="6"/>
@@ -2692,7 +2686,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="2"/>
       <c r="I95" s="9" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -2774,17 +2768,17 @@
     </row>
     <row r="100" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="6"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="7"/>
+      <c r="G100" s="2"/>
       <c r="H100" s="7"/>
       <c r="I100" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -2810,17 +2804,17 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="6"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="7"/>
+      <c r="G102" s="2"/>
       <c r="H102" s="7"/>
       <c r="I102" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -2831,7 +2825,7 @@
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="6"/>
@@ -2851,16 +2845,16 @@
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="6"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="7"/>
+      <c r="G104" s="2"/>
       <c r="H104" s="7"/>
       <c r="I104" s="9" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -2871,7 +2865,7 @@
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="6"/>
@@ -2906,7 +2900,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2927,7 +2921,7 @@
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="6"/>
@@ -2947,7 +2941,7 @@
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="6"/>
@@ -2982,36 +2976,36 @@
     </row>
     <row r="111" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="6"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="15" t="s">
-        <v>77</v>
+      <c r="G111" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="H111" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I111" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I111" s="12" t="s">
+      <c r="J111" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="J111" s="12" t="s">
+      <c r="K111" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="K111" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="L111" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M111" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="M111" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="N111" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3032,23 +3026,23 @@
     </row>
     <row r="113" spans="1:15" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="6"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
       <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
+      <c r="L113" s="1"/>
       <c r="M113" s="12"/>
       <c r="N113" s="1"/>
-      <c r="O113" s="16" t="s">
-        <v>85</v>
+      <c r="O113" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3066,21 +3060,21 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
-      <c r="O114" s="16" t="s">
-        <v>92</v>
+      <c r="O114" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="6"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="12" t="s">
-        <v>80</v>
+      <c r="G115" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="9"/>
@@ -3088,13 +3082,13 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3102,13 +3096,13 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="9"/>
-      <c r="H116" s="13">
+      <c r="H116" s="15">
         <v>41335</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="1"/>
       <c r="K116" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
@@ -3122,13 +3116,13 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="9"/>
-      <c r="H117" s="14" t="s">
-        <v>87</v>
+      <c r="H117" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="1"/>
       <c r="K117" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
@@ -3142,13 +3136,13 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="14" t="s">
-        <v>86</v>
+      <c r="H118" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="1"/>
       <c r="K118" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="22980" windowHeight="9465"/>
+    <workbookView xWindow="0" yWindow="195" windowWidth="22980" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L96" sqref="L96"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,7 +2514,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="7"/>
       <c r="I86" s="9" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -2554,7 +2554,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="7"/>
       <c r="I88" s="9" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
   <si>
     <t>Vecka:</t>
   </si>
@@ -35,9 +35,6 @@
     <t>1.1.1 Magnetfältsindikator</t>
   </si>
   <si>
-    <t>0% Färdigt</t>
-  </si>
-  <si>
     <t>1.2 Kropp (Hjärnskal)</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
     <t>Indv.</t>
   </si>
   <si>
-    <t>Heldag</t>
-  </si>
-  <si>
     <t>1-2 Dagar</t>
   </si>
   <si>
@@ -302,9 +296,6 @@
     <t>6.2 Huvudmeny</t>
   </si>
   <si>
-    <t>70% Färdigt</t>
-  </si>
-  <si>
     <t>7.1.7 Bakgrundsbild</t>
   </si>
   <si>
@@ -329,7 +320,10 @@
     <t>30% Tid har gått</t>
   </si>
   <si>
-    <t>30% Färdigt</t>
+    <t>75% Färdigt</t>
+  </si>
+  <si>
+    <t>Torsdag</t>
   </si>
 </sst>
 </file>
@@ -852,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,12 +897,12 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -924,7 +918,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -954,7 +948,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -989,7 +983,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1009,7 +1003,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1019,7 +1013,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1040,14 +1034,14 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1061,13 +1055,13 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1081,13 +1075,13 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="6"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1116,14 +1110,14 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1137,19 +1131,19 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
       <c r="G14" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1159,14 +1153,14 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1179,14 +1173,14 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="6"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
       <c r="G16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1199,14 +1193,14 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
       <c r="G17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1219,14 +1213,14 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
       <c r="G18" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1254,7 +1248,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1263,7 +1257,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="2"/>
       <c r="H20" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1275,7 +1269,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="6"/>
@@ -1283,7 +1277,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
       <c r="H21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1295,7 +1289,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
@@ -1303,7 +1297,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="2"/>
       <c r="H22" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1315,7 +1309,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
@@ -1323,7 +1317,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
       <c r="H23" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1359,7 +1353,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1386,7 +1380,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1395,7 +1389,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1406,7 +1400,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1415,7 +1409,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1426,7 +1420,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1435,7 +1429,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1446,7 +1440,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1455,7 +1449,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1491,7 +1485,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1518,7 +1512,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1526,7 +1520,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1539,13 +1533,13 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="6"/>
       <c r="E35" s="2"/>
       <c r="F35" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1559,14 +1553,14 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="6"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
       <c r="G36" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1579,14 +1573,14 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="6"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
       <c r="G37" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1599,13 +1593,13 @@
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="6"/>
       <c r="E38" s="2"/>
       <c r="F38" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
@@ -1619,14 +1613,14 @@
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="6"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
       <c r="G39" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1639,14 +1633,14 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="6"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
       <c r="G40" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1659,7 +1653,7 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="6"/>
@@ -1667,7 +1661,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="2"/>
       <c r="H41" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1679,7 +1673,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="6"/>
@@ -1687,7 +1681,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="2"/>
       <c r="H42" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1699,14 +1693,14 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="6"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
       <c r="G43" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1719,14 +1713,14 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="6"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
       <c r="G44" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -1738,17 +1732,17 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="6"/>
       <c r="E45" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="1"/>
@@ -1776,7 +1770,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1786,7 +1780,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -1812,7 +1806,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1820,7 +1814,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="2"/>
       <c r="G49" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -1833,14 +1827,14 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="6"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
       <c r="G50" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -1853,14 +1847,14 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="6"/>
       <c r="E51" s="1"/>
       <c r="F51" s="2"/>
       <c r="G51" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -1873,14 +1867,14 @@
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="6"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
       <c r="G52" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -1908,7 +1902,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1916,7 +1910,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
       <c r="G54" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -1929,14 +1923,14 @@
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="6"/>
       <c r="E55" s="1"/>
       <c r="F55" s="2"/>
       <c r="G55" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -1949,14 +1943,14 @@
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="6"/>
       <c r="E56" s="1"/>
       <c r="F56" s="2"/>
       <c r="G56" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -1969,14 +1963,14 @@
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="6"/>
       <c r="E57" s="1"/>
       <c r="F57" s="2"/>
       <c r="G57" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -2004,7 +1998,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2014,7 +2008,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="2"/>
       <c r="I59" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -2040,7 +2034,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2048,7 +2042,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="2"/>
       <c r="G61" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2061,14 +2055,14 @@
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="6"/>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
       <c r="G62" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2081,14 +2075,14 @@
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="6"/>
       <c r="E63" s="1"/>
       <c r="F63" s="2"/>
       <c r="G63" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -2116,14 +2110,14 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="6"/>
       <c r="E65" s="2"/>
       <c r="F65" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -2137,13 +2131,13 @@
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="6"/>
       <c r="E66" s="2"/>
       <c r="F66" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -2157,13 +2151,13 @@
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="6"/>
       <c r="E67" s="2"/>
       <c r="F67" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -2192,7 +2186,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2200,7 +2194,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="2"/>
       <c r="G69" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -2228,7 +2222,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2238,7 +2232,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="2"/>
       <c r="I71" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -2264,7 +2258,7 @@
     </row>
     <row r="73" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2273,7 +2267,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="2"/>
       <c r="H73" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2300,7 +2294,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2309,7 +2303,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="2"/>
       <c r="H75" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -2321,7 +2315,7 @@
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="6"/>
@@ -2329,7 +2323,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="2"/>
       <c r="H76" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -2341,7 +2335,7 @@
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="6"/>
@@ -2349,7 +2343,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="2"/>
       <c r="H77" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -2376,7 +2370,7 @@
     </row>
     <row r="79" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2384,7 +2378,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -2412,7 +2406,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2420,7 +2414,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -2432,14 +2426,14 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="6"/>
       <c r="E82" s="2"/>
       <c r="F82" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -2468,7 +2462,7 @@
     </row>
     <row r="84" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2478,7 +2472,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="7"/>
       <c r="I84" s="9" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -2504,7 +2498,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2514,7 +2508,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="7"/>
       <c r="I86" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -2524,7 +2518,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2532,9 +2526,9 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="7"/>
+      <c r="H87" s="2"/>
       <c r="I87" s="9" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -2544,7 +2538,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2552,9 +2546,9 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="7"/>
+      <c r="H88" s="2"/>
       <c r="I88" s="9" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -2580,7 +2574,7 @@
     </row>
     <row r="90" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2588,12 +2582,12 @@
       <c r="E90" s="2"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="7"/>
+      <c r="H90" s="2"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -2616,7 +2610,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2626,7 +2620,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="2"/>
       <c r="I92" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -2637,13 +2631,13 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="6"/>
       <c r="E93" s="2"/>
       <c r="F93" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -2657,13 +2651,13 @@
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="6"/>
       <c r="E94" s="2"/>
       <c r="F94" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -2677,7 +2671,7 @@
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="6"/>
@@ -2686,7 +2680,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="2"/>
       <c r="I95" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -2712,7 +2706,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2720,19 +2714,17 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="7"/>
+      <c r="H97" s="2"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
-      <c r="L97" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="L97" s="9"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2740,13 +2732,11 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="7"/>
+      <c r="H98" s="2"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
-      <c r="L98" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="L98" s="9"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
@@ -2768,7 +2758,7 @@
     </row>
     <row r="100" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2776,9 +2766,9 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="7"/>
+      <c r="H100" s="2"/>
       <c r="I100" s="9" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -2804,7 +2794,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2812,9 +2802,9 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="7"/>
+      <c r="H102" s="2"/>
       <c r="I102" s="9" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -2825,7 +2815,7 @@
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="6"/>
@@ -2833,7 +2823,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="2"/>
       <c r="H103" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -2845,16 +2835,16 @@
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="6"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="7"/>
+      <c r="H104" s="2"/>
       <c r="I104" s="9" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -2865,7 +2855,7 @@
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="6"/>
@@ -2873,7 +2863,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="2"/>
       <c r="H105" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -2900,7 +2890,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2909,7 +2899,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="2"/>
       <c r="H107" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="1"/>
@@ -2921,7 +2911,7 @@
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="6"/>
@@ -2929,7 +2919,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="2"/>
       <c r="H108" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -2941,7 +2931,7 @@
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="6"/>
@@ -2949,7 +2939,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="2"/>
       <c r="H109" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -2976,7 +2966,7 @@
     </row>
     <row r="111" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2984,28 +2974,28 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H111" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J111" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I111" s="12" t="s">
+      <c r="K111" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="J111" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K111" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="L111" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M111" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N111" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3026,7 +3016,7 @@
     </row>
     <row r="113" spans="1:15" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3042,7 +3032,7 @@
       <c r="M113" s="12"/>
       <c r="N113" s="1"/>
       <c r="O113" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3061,12 +3051,12 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3074,7 +3064,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="9"/>
@@ -3082,13 +3072,13 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3102,7 +3092,7 @@
       <c r="I116" s="9"/>
       <c r="J116" s="1"/>
       <c r="K116" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
@@ -3117,12 +3107,12 @@
       <c r="F117" s="1"/>
       <c r="G117" s="9"/>
       <c r="H117" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="1"/>
       <c r="K117" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
@@ -3137,12 +3127,12 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="1"/>
       <c r="K118" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="118">
   <si>
     <t>Vecka:</t>
   </si>
@@ -179,9 +179,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>11% Färdigt</t>
-  </si>
-  <si>
     <t>1.3.5 Hoppanimation (Ben)</t>
   </si>
   <si>
@@ -197,24 +194,6 @@
     <t>6 Text</t>
   </si>
   <si>
-    <t>7 Om tid finns</t>
-  </si>
-  <si>
-    <t>7.1 Bakgrunder</t>
-  </si>
-  <si>
-    <t>7.1.1 Minirobot</t>
-  </si>
-  <si>
-    <t>7.1.2 Rullband</t>
-  </si>
-  <si>
-    <t>7.2 Detaljer</t>
-  </si>
-  <si>
-    <t>7.3 Finslip av existerande objekt</t>
-  </si>
-  <si>
     <t>6.1 Dialoger</t>
   </si>
   <si>
@@ -227,30 +206,9 @@
     <t xml:space="preserve">     Tutorialram 2st</t>
   </si>
   <si>
-    <t>8 Tillkommet</t>
-  </si>
-  <si>
-    <t>8.1 SGA-Facebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1.1 Widescreenbild </t>
-  </si>
-  <si>
-    <t>8.1.3 Profilbild</t>
-  </si>
-  <si>
-    <t>9 Eget arbete</t>
-  </si>
-  <si>
     <t>Halvdag</t>
   </si>
   <si>
-    <t>10 Inlämningar</t>
-  </si>
-  <si>
-    <t>10.1 Seminarie</t>
-  </si>
-  <si>
     <t>#2 Inl. 3/2</t>
   </si>
   <si>
@@ -275,9 +233,6 @@
     <t>Indv.</t>
   </si>
   <si>
-    <t>1-2 Dagar</t>
-  </si>
-  <si>
     <t>2-3 Dagar</t>
   </si>
   <si>
@@ -287,43 +242,133 @@
     <t>Rapportinl.</t>
   </si>
   <si>
-    <t>10.2 Övriga inlämningar</t>
-  </si>
-  <si>
     <t>6.3 InGameMeny</t>
   </si>
   <si>
     <t>6.2 Huvudmeny</t>
   </si>
   <si>
-    <t>7.1.7 Bakgrundsbild</t>
-  </si>
-  <si>
-    <t>50% Färdigt</t>
-  </si>
-  <si>
-    <t>8.1.2 Flertal ikoner Ca. 5st</t>
-  </si>
-  <si>
-    <t>8.2.1 Skisser</t>
-  </si>
-  <si>
-    <t>8.2.2 Renritning</t>
-  </si>
-  <si>
     <t>5.2 Moodboard (4st)</t>
   </si>
   <si>
-    <t>8.2 Tutorial hjälpbilder</t>
-  </si>
-  <si>
     <t>30% Tid har gått</t>
   </si>
   <si>
-    <t>75% Färdigt</t>
-  </si>
-  <si>
     <t>Torsdag</t>
+  </si>
+  <si>
+    <t>2 Dagar</t>
+  </si>
+  <si>
+    <t>7 Tillkommet</t>
+  </si>
+  <si>
+    <t>7.1 SGA-Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.1 Widescreenbild </t>
+  </si>
+  <si>
+    <t>7.1.2 Flertal ikoner Ca. 5st</t>
+  </si>
+  <si>
+    <t>7.1.3 Profilbild</t>
+  </si>
+  <si>
+    <t>7.2 Tutorial hjälpbilder</t>
+  </si>
+  <si>
+    <t>7.2.1 Skisser</t>
+  </si>
+  <si>
+    <t>7.2.2 Renritning</t>
+  </si>
+  <si>
+    <t>8 Eget arbete</t>
+  </si>
+  <si>
+    <t>9 Inlämningar</t>
+  </si>
+  <si>
+    <t>9.1 Seminarie</t>
+  </si>
+  <si>
+    <t>9.2 Övriga inlämningar</t>
+  </si>
+  <si>
+    <t>10.1 Bakgrunder</t>
+  </si>
+  <si>
+    <t>10.1.1 Minirobot</t>
+  </si>
+  <si>
+    <t>10.1.2 Rullband</t>
+  </si>
+  <si>
+    <t>0% Färdigt</t>
+  </si>
+  <si>
+    <t>10.1.3 Bakgrundsbild</t>
+  </si>
+  <si>
+    <t>10.1.4 Kugghjul</t>
+  </si>
+  <si>
+    <t>10 Önselåda</t>
+  </si>
+  <si>
+    <t>10.1.5 Fläktar</t>
+  </si>
+  <si>
+    <t>10.1.6 Rullband (3 Delar)</t>
+  </si>
+  <si>
+    <t>10.1.7 Bränslestation</t>
+  </si>
+  <si>
+    <t>10.1.8 Huvudets hoppanimation</t>
+  </si>
+  <si>
+    <t>10.1.9 Spalshscreen Headshot</t>
+  </si>
+  <si>
+    <t>10.1.10 Splashscreen Hänga</t>
+  </si>
+  <si>
+    <t>10.1.11 Helvetesinslag menyn</t>
+  </si>
+  <si>
+    <t>10.1.12 Dialogrutor i rätt storlek</t>
+  </si>
+  <si>
+    <t>10.1.13 Edges to breakable</t>
+  </si>
+  <si>
+    <t>10.1.14 Bakgrund B1 - Utan gnista</t>
+  </si>
+  <si>
+    <t>10.1.15 Dela upp bakgrunderna</t>
+  </si>
+  <si>
+    <t>10.1.16 Control display</t>
+  </si>
+  <si>
+    <t>10.1.17 Tidtagar ur (Klocka)</t>
+  </si>
+  <si>
+    <t>10.1.19 Lavamonster el. Dylikt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.21 </t>
+  </si>
+  <si>
+    <t>10.1.20 Highscore/Time display</t>
+  </si>
+  <si>
+    <t>Mån</t>
+  </si>
+  <si>
+    <t>(Som ska slå sönder bana 3, om inte meanix själv gör det)</t>
   </si>
 </sst>
 </file>
@@ -538,12 +583,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
-    <cellStyle name="Accent2" xfId="6" builtinId="33"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="20% - Dekorfärg1" xfId="4" builtinId="30"/>
+    <cellStyle name="40% - Dekorfärg1" xfId="5" builtinId="31"/>
+    <cellStyle name="Bra" xfId="1" builtinId="26"/>
+    <cellStyle name="Färg1" xfId="3" builtinId="29"/>
+    <cellStyle name="Färg2" xfId="6" builtinId="33"/>
+    <cellStyle name="Kontrollcell" xfId="7" builtinId="23"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -558,7 +603,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -844,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N86" sqref="N86"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O139" sqref="O139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,10 +920,10 @@
       <c r="G1" s="3">
         <v>3</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>4</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="4">
         <v>5</v>
       </c>
       <c r="J1" s="3">
@@ -897,7 +942,7 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
@@ -910,7 +955,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -1213,7 +1258,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6"/>
@@ -1248,7 +1293,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1309,7 +1354,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="6"/>
@@ -1653,7 +1698,7 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="6"/>
@@ -1673,7 +1718,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="6"/>
@@ -1693,7 +1738,7 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="6"/>
@@ -1713,7 +1758,7 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="6"/>
@@ -1738,7 +1783,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="6"/>
       <c r="E45" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="9" t="s">
@@ -2426,7 +2471,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2462,7 +2507,7 @@
     </row>
     <row r="84" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2470,9 +2515,9 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="7"/>
+      <c r="H84" s="2"/>
       <c r="I84" s="9" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -2498,7 +2543,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2506,9 +2551,9 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="7"/>
+      <c r="H86" s="2"/>
       <c r="I86" s="9" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -2518,7 +2563,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2538,7 +2583,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2574,21 +2619,21 @@
     </row>
     <row r="90" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="2"/>
+      <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="I90" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
@@ -2610,14 +2655,14 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="2"/>
+      <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="9" t="s">
         <v>49</v>
@@ -2631,16 +2676,16 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -2651,17 +2696,17 @@
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -2671,17 +2716,17 @@
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="6"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -2704,51 +2749,59 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="6"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="9"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B98" s="3"/>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C98" s="3"/>
       <c r="D98" s="6"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="9"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C99" s="3"/>
       <c r="D99" s="6"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -2756,191 +2809,205 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A100" s="8" t="s">
-        <v>70</v>
-      </c>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="6"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
+    <row r="101" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A101" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="6"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="G101" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J101" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K101" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L101" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M101" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N101" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="6"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3" t="s">
-        <v>72</v>
-      </c>
+    <row r="103" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A103" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="6"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="H103" s="2"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
+      <c r="K103" s="12"/>
       <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
+      <c r="M103" s="12"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
-      <c r="B104" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="6"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3" t="s">
-        <v>73</v>
-      </c>
+    <row r="105" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="6"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I105" s="1"/>
+      <c r="G105" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="9"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
+      <c r="M105" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
+    <row r="106" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="6"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="15">
+        <v>41335</v>
+      </c>
+      <c r="I106" s="9"/>
       <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
+      <c r="K106" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="O106" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="6"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="9" t="s">
-        <v>49</v>
+      <c r="G107" s="9"/>
+      <c r="H107" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
+      <c r="K107" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
-      <c r="B108" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="6"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I108" s="9"/>
       <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
+      <c r="K108" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
-      <c r="B109" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="6"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -2948,100 +3015,91 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
+    <row r="110" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A110" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="1"/>
+      <c r="E110" s="2"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="7"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
+      <c r="L110" s="9"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A111" s="8" t="s">
-        <v>74</v>
-      </c>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="6"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I111" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J111" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K111" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="L111" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="M111" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="N111" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="6"/>
-      <c r="E112" s="1"/>
+      <c r="E112" s="2"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B113" s="3"/>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="C113" s="3"/>
       <c r="D113" s="6"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
-      <c r="K113" s="12"/>
+      <c r="K113" s="1"/>
       <c r="L113" s="1"/>
-      <c r="M113" s="12"/>
+      <c r="M113" s="1"/>
       <c r="N113" s="1"/>
-      <c r="O113" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="B114" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="C114" s="3"/>
       <c r="D114" s="6"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -3050,93 +3108,393 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
-      <c r="O114" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B115" s="3"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="C115" s="3"/>
       <c r="D115" s="6"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H115" s="1"/>
-      <c r="I115" s="9"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
-      <c r="M115" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B116" s="3"/>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="C116" s="3"/>
       <c r="D116" s="6"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="15">
-        <v>41335</v>
-      </c>
-      <c r="I116" s="9"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="12" t="s">
-        <v>79</v>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="B117" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="C117" s="3"/>
       <c r="D117" s="6"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I117" s="9"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="12" t="s">
-        <v>80</v>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="B118" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="C118" s="3"/>
       <c r="D118" s="6"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I118" s="9"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="12" t="s">
-        <v>81</v>
+      <c r="H118" s="1"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C125" s="3"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -359,9 +359,6 @@
     <t>10.1.19 Lavamonster el. Dylikt</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1.21 </t>
-  </si>
-  <si>
     <t>10.1.20 Highscore/Time display</t>
   </si>
   <si>
@@ -369,6 +366,9 @@
   </si>
   <si>
     <t>(Som ska slå sönder bana 3, om inte meanix själv gör det)</t>
+  </si>
+  <si>
+    <t>10.1.21 World map</t>
   </si>
 </sst>
 </file>
@@ -583,12 +583,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="20% - Dekorfärg1" xfId="4" builtinId="30"/>
-    <cellStyle name="40% - Dekorfärg1" xfId="5" builtinId="31"/>
-    <cellStyle name="Bra" xfId="1" builtinId="26"/>
-    <cellStyle name="Färg1" xfId="3" builtinId="29"/>
-    <cellStyle name="Färg2" xfId="6" builtinId="33"/>
-    <cellStyle name="Kontrollcell" xfId="7" builtinId="23"/>
+    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="6" builtinId="33"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -603,7 +603,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O139" sqref="O139"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W124" sqref="W124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3281,7 +3281,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J123" s="9" t="s">
         <v>96</v>
@@ -3323,7 +3323,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J125" s="9" t="s">
         <v>96</v>
@@ -3345,7 +3345,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J126" s="9" t="s">
         <v>96</v>
@@ -3367,7 +3367,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J127" s="9" t="s">
         <v>96</v>
@@ -3437,13 +3437,13 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="6"/>
@@ -3463,7 +3463,7 @@
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="6"/>
@@ -3471,11 +3471,11 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="9" t="s">
+      <c r="I132" s="1"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W124" sqref="W124"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R118" sqref="R118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Grafik/Planering/Grafikplanering.xlsx
+++ b/Grafik/Planering/Grafikplanering.xlsx
@@ -892,7 +892,7 @@
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R118" sqref="R118"/>
+      <selection activeCell="R119" sqref="R119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
